--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4168062227714128</v>
+        <v>0.4165500938170587</v>
       </c>
       <c r="C2">
-        <v>0.5826859826878467</v>
+        <v>0.5817745553736098</v>
       </c>
       <c r="D2">
-        <v>0.6657819362620041</v>
+        <v>0.6656782362548082</v>
       </c>
       <c r="E2">
-        <v>0.7278396952353939</v>
+        <v>0.7263964236600271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4428153116307423</v>
+        <v>0.4425011968473371</v>
       </c>
       <c r="C3">
-        <v>0.6134207599418796</v>
+        <v>0.6127678567160914</v>
       </c>
       <c r="D3">
-        <v>0.6952135240866476</v>
+        <v>0.6945291719047449</v>
       </c>
       <c r="E3">
-        <v>0.7509603278854455</v>
+        <v>0.7497963153137237</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.371548313222092</v>
+        <v>0.3717759532087446</v>
       </c>
       <c r="C4">
-        <v>0.527488658362904</v>
+        <v>0.5267388280248954</v>
       </c>
       <c r="D4">
-        <v>0.6116678401586156</v>
+        <v>0.6115471694156789</v>
       </c>
       <c r="E4">
-        <v>0.6791243697324958</v>
+        <v>0.6784402355552254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4803241244709264</v>
+        <v>0.4802277040075707</v>
       </c>
       <c r="C5">
-        <v>0.6584616284725826</v>
+        <v>0.6573702918581965</v>
       </c>
       <c r="D5">
-        <v>0.7297119279800489</v>
+        <v>0.7293867604872588</v>
       </c>
       <c r="E5">
-        <v>0.7855553617407524</v>
+        <v>0.7845089806605176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4707978063686589</v>
+        <v>0.4707275492917793</v>
       </c>
       <c r="C6">
-        <v>0.6470657544610525</v>
+        <v>0.6459004604667629</v>
       </c>
       <c r="D6">
-        <v>0.7196350699087855</v>
+        <v>0.7187228668629096</v>
       </c>
       <c r="E6">
-        <v>0.7766795084592183</v>
+        <v>0.7756754437877884</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4946652219798439</v>
+        <v>0.4945077918741457</v>
       </c>
       <c r="C7">
-        <v>0.67364116920805</v>
+        <v>0.6728827465569309</v>
       </c>
       <c r="D7">
-        <v>0.750260933535949</v>
+        <v>0.7498245758194799</v>
       </c>
       <c r="E7">
-        <v>0.7950516032786239</v>
+        <v>0.7937543922314764</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4303720629153217</v>
+        <v>0.4303344470155975</v>
       </c>
       <c r="C8">
-        <v>0.6013031496445814</v>
+        <v>0.6002100318368492</v>
       </c>
       <c r="D8">
-        <v>0.6912002820324787</v>
+        <v>0.6903222019640344</v>
       </c>
       <c r="E8">
-        <v>0.7392743478098092</v>
+        <v>0.7384478743081042</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4981935091878181</v>
+        <v>0.4982263498511468</v>
       </c>
       <c r="C9">
-        <v>0.6801343173412033</v>
+        <v>0.6793750769462492</v>
       </c>
       <c r="D9">
-        <v>0.7572872205598351</v>
+        <v>0.7568206031162165</v>
       </c>
       <c r="E9">
-        <v>0.8013312218218147</v>
+        <v>0.8003621903725986</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.512485839212741</v>
+        <v>0.5123575806189912</v>
       </c>
       <c r="C10">
-        <v>0.6886494023625432</v>
+        <v>0.6874373528801301</v>
       </c>
       <c r="D10">
-        <v>0.754258268190977</v>
+        <v>0.7523855043214686</v>
       </c>
       <c r="E10">
-        <v>0.7829818180223528</v>
+        <v>0.7818163400102417</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5076452670761501</v>
+        <v>0.5075664387102803</v>
       </c>
       <c r="C11">
-        <v>0.682055255013995</v>
+        <v>0.6805110419387205</v>
       </c>
       <c r="D11">
-        <v>0.7447720313008772</v>
+        <v>0.7447263700905355</v>
       </c>
       <c r="E11">
-        <v>0.7759357756066759</v>
+        <v>0.7742004243341288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4736956242698037</v>
+        <v>0.4733464200831813</v>
       </c>
       <c r="C12">
-        <v>0.6164198286991209</v>
+        <v>0.6156258578351426</v>
       </c>
       <c r="D12">
-        <v>0.652261338963132</v>
+        <v>0.651220674327408</v>
       </c>
       <c r="E12">
-        <v>0.6583714257902952</v>
+        <v>0.6573517222229365</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5103204064180292</v>
+        <v>0.5100629818656438</v>
       </c>
       <c r="C13">
-        <v>0.684662499035067</v>
+        <v>0.6837280873050913</v>
       </c>
       <c r="D13">
-        <v>0.7497125826268709</v>
+        <v>0.7479563703930113</v>
       </c>
       <c r="E13">
-        <v>0.778441930465555</v>
+        <v>0.77706033667528</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4165500938170587</v>
+        <v>0.4215077612063589</v>
       </c>
       <c r="C2">
-        <v>0.5817745553736098</v>
+        <v>0.58792005918047</v>
       </c>
       <c r="D2">
-        <v>0.6656782362548082</v>
+        <v>0.672081007344369</v>
       </c>
       <c r="E2">
-        <v>0.7263964236600271</v>
+        <v>0.7325767622515603</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4425011968473371</v>
+        <v>0.4480068978269227</v>
       </c>
       <c r="C3">
-        <v>0.6127678567160914</v>
+        <v>0.6195689296840667</v>
       </c>
       <c r="D3">
-        <v>0.6945291719047449</v>
+        <v>0.7015778299709426</v>
       </c>
       <c r="E3">
-        <v>0.7497963153137237</v>
+        <v>0.7565117611137623</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3717759532087446</v>
+        <v>0.3758487441489632</v>
       </c>
       <c r="C4">
-        <v>0.5267388280248954</v>
+        <v>0.5318206555514727</v>
       </c>
       <c r="D4">
-        <v>0.6115471694156789</v>
+        <v>0.6168906973569016</v>
       </c>
       <c r="E4">
-        <v>0.6784402355552254</v>
+        <v>0.6837215924857288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4802277040075707</v>
+        <v>0.4865354429621429</v>
       </c>
       <c r="C5">
-        <v>0.6573702918581965</v>
+        <v>0.6651261304297056</v>
       </c>
       <c r="D5">
-        <v>0.7293867604872588</v>
+        <v>0.7373143177077819</v>
       </c>
       <c r="E5">
-        <v>0.7845089806605176</v>
+        <v>0.7920320214721451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4707275492917793</v>
+        <v>0.4768322874951845</v>
       </c>
       <c r="C6">
-        <v>0.6459004604667629</v>
+        <v>0.6534093172196863</v>
       </c>
       <c r="D6">
-        <v>0.7187228668629096</v>
+        <v>0.7264082756098442</v>
       </c>
       <c r="E6">
-        <v>0.7756754437877884</v>
+        <v>0.7829951580196046</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4945077918741457</v>
+        <v>0.5011393183364669</v>
       </c>
       <c r="C7">
-        <v>0.6728827465569309</v>
+        <v>0.6810079994693606</v>
       </c>
       <c r="D7">
-        <v>0.7498245758194799</v>
+        <v>0.7581868676151399</v>
       </c>
       <c r="E7">
-        <v>0.7937543922314764</v>
+        <v>0.8015667912701183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4303344470155975</v>
+        <v>0.435592459430847</v>
       </c>
       <c r="C8">
-        <v>0.6002100318368492</v>
+        <v>0.6067621287882927</v>
       </c>
       <c r="D8">
-        <v>0.6903222019640344</v>
+        <v>0.6972172193191215</v>
       </c>
       <c r="E8">
-        <v>0.7384478743081042</v>
+        <v>0.7449368387269226</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4982263498511468</v>
+        <v>0.504913894623724</v>
       </c>
       <c r="C9">
-        <v>0.6793750769462492</v>
+        <v>0.687597352504432</v>
       </c>
       <c r="D9">
-        <v>0.7568206031162165</v>
+        <v>0.7652800459638724</v>
       </c>
       <c r="E9">
-        <v>0.8003621903725986</v>
+        <v>0.8082516464155737</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5123575806189912</v>
+        <v>0.5196008561227122</v>
       </c>
       <c r="C10">
-        <v>0.6874373528801301</v>
+        <v>0.6962885743215873</v>
       </c>
       <c r="D10">
-        <v>0.7523855043214686</v>
+        <v>0.7614197283363611</v>
       </c>
       <c r="E10">
-        <v>0.7818163400102417</v>
+        <v>0.7901193396688405</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5075664387102803</v>
+        <v>0.514738428575523</v>
       </c>
       <c r="C11">
-        <v>0.6805110419387205</v>
+        <v>0.6892710809081366</v>
       </c>
       <c r="D11">
-        <v>0.7447263700905355</v>
+        <v>0.7536675349904853</v>
       </c>
       <c r="E11">
-        <v>0.7742004243341288</v>
+        <v>0.7824232959475607</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4733464200831813</v>
+        <v>0.4804581224628028</v>
       </c>
       <c r="C12">
-        <v>0.6156258578351426</v>
+        <v>0.6241881254001516</v>
       </c>
       <c r="D12">
-        <v>0.651220674327408</v>
+        <v>0.659795161260209</v>
       </c>
       <c r="E12">
-        <v>0.6573517222229365</v>
+        <v>0.6650539704803021</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.5100629818656438</v>
+        <v>0.517283874555091</v>
       </c>
       <c r="C13">
-        <v>0.6837280873050913</v>
+        <v>0.6925478065089196</v>
       </c>
       <c r="D13">
-        <v>0.7479563703930113</v>
+        <v>0.7569554584173224</v>
       </c>
       <c r="E13">
-        <v>0.77706033667528</v>
+        <v>0.7853295825320202</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Fiets.xlsx
@@ -391,10 +391,10 @@
         <v>0.4215077612063589</v>
       </c>
       <c r="C2">
-        <v>0.58792005918047</v>
+        <v>0.5879200591804699</v>
       </c>
       <c r="D2">
-        <v>0.672081007344369</v>
+        <v>0.6720810073443689</v>
       </c>
       <c r="E2">
         <v>0.7325767622515603</v>
@@ -411,7 +411,7 @@
         <v>0.6195689296840667</v>
       </c>
       <c r="D3">
-        <v>0.7015778299709426</v>
+        <v>0.7015778299709424</v>
       </c>
       <c r="E3">
         <v>0.7565117611137623</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.3758487441489632</v>
+        <v>0.3758487441489631</v>
       </c>
       <c r="C4">
         <v>0.5318206555514727</v>
       </c>
       <c r="D4">
-        <v>0.6168906973569016</v>
+        <v>0.6168906973569015</v>
       </c>
       <c r="E4">
         <v>0.6837215924857288</v>
@@ -442,7 +442,7 @@
         <v>0.4865354429621429</v>
       </c>
       <c r="C5">
-        <v>0.6651261304297056</v>
+        <v>0.6651261304297055</v>
       </c>
       <c r="D5">
         <v>0.7373143177077819</v>
@@ -459,7 +459,7 @@
         <v>0.4768322874951845</v>
       </c>
       <c r="C6">
-        <v>0.6534093172196863</v>
+        <v>0.6534093172196862</v>
       </c>
       <c r="D6">
         <v>0.7264082756098442</v>
@@ -473,10 +473,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5011393183364669</v>
+        <v>0.5011393183364667</v>
       </c>
       <c r="C7">
-        <v>0.6810079994693606</v>
+        <v>0.6810079994693605</v>
       </c>
       <c r="D7">
         <v>0.7581868676151399</v>
@@ -493,10 +493,10 @@
         <v>0.435592459430847</v>
       </c>
       <c r="C8">
-        <v>0.6067621287882927</v>
+        <v>0.6067621287882924</v>
       </c>
       <c r="D8">
-        <v>0.6972172193191215</v>
+        <v>0.6972172193191213</v>
       </c>
       <c r="E8">
         <v>0.7449368387269226</v>
@@ -527,7 +527,7 @@
         <v>0.5196008561227122</v>
       </c>
       <c r="C10">
-        <v>0.6962885743215873</v>
+        <v>0.6962885743215872</v>
       </c>
       <c r="D10">
         <v>0.7614197283363611</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.514738428575523</v>
+        <v>0.5147384285755229</v>
       </c>
       <c r="C11">
-        <v>0.6892710809081366</v>
+        <v>0.6892710809081365</v>
       </c>
       <c r="D11">
-        <v>0.7536675349904853</v>
+        <v>0.7536675349904851</v>
       </c>
       <c r="E11">
         <v>0.7824232959475607</v>
@@ -561,7 +561,7 @@
         <v>0.4804581224628028</v>
       </c>
       <c r="C12">
-        <v>0.6241881254001516</v>
+        <v>0.6241881254001515</v>
       </c>
       <c r="D12">
         <v>0.659795161260209</v>
@@ -581,7 +581,7 @@
         <v>0.6925478065089196</v>
       </c>
       <c r="D13">
-        <v>0.7569554584173224</v>
+        <v>0.7569554584173221</v>
       </c>
       <c r="E13">
         <v>0.7853295825320202</v>
